--- a/bacteria.xlsx
+++ b/bacteria.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/DATA_SCIENCE/Biostatistics/RAMJA Genosensor/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csciitd-my.sharepoint.com/personal/srz188304_iitd_ac_in/Documents/Documents/GitHub/DiagnosticsPy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{5BE9FF14-329B-4283-A8A4-CC282631848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B4EF3B-B91F-4045-BA9D-9B4CFE915E9D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{5BE9FF14-329B-4283-A8A4-CC282631848B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E943D1-F9D6-439A-A10A-BD5130F42CD3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD5F129D-5549-4059-B4A6-EA88793D2DEA}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>E. Coli and E.Faecalis</t>
   </si>
   <si>
-    <t>E.coli,K pneumoniae, P aeruginosa A. baumannii, P.mirabilis, E. Faecalis, S.aureus, S saprophyticus</t>
-  </si>
-  <si>
     <t>A.Baumini</t>
   </si>
   <si>
@@ -717,6 +714,9 @@
   </si>
   <si>
     <t>E.coli, A. baumannii, P.mirabilis, E. faecalis,S aureus</t>
+  </si>
+  <si>
+    <t>E.coli,K pneumoniae, P aeruginosa, A. baumannii, P.mirabilis, E. Faecalis, S.aureus, S saprophyticus</t>
   </si>
 </sst>
 </file>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850CC7D4-7F66-4312-8D92-46E76BB64942}">
   <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,10 +1103,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1117,7 +1117,7 @@
         <v>20220065432</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>20240016182</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>20230125389</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -1147,7 +1147,7 @@
         <v>20180022685</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         <v>20201415102</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1166,10 @@
         <v>20240012395</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>20220166372</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1188,7 +1188,7 @@
         <v>20240018475</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1196,7 +1196,7 @@
         <v>20230149608</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -1207,7 +1207,7 @@
         <v>20240016829</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1218,7 +1218,7 @@
         <v>20230179067</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1229,7 +1229,7 @@
         <v>20180188108</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -1240,7 +1240,7 @@
         <v>20230141608</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
         <v>20240020494</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1262,7 +1262,7 @@
         <v>20240020519</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -1273,7 +1273,7 @@
         <v>20240015483</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
@@ -1284,7 +1284,7 @@
         <v>20240001249</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1295,7 +1295,7 @@
         <v>20210094336</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
@@ -1306,7 +1306,7 @@
         <v>20240006140</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -1317,7 +1317,7 @@
         <v>20240020436</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -1328,7 +1328,7 @@
         <v>20240022478</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -1339,7 +1339,7 @@
         <v>20240022523</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
@@ -1350,7 +1350,7 @@
         <v>20220102808</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
@@ -1361,7 +1361,7 @@
         <v>20240022502</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1372,7 +1372,7 @@
         <v>20240017188</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
         <v>19</v>
@@ -1383,7 +1383,7 @@
         <v>20220064259</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1394,7 +1394,7 @@
         <v>20240019044</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1405,7 +1405,7 @@
         <v>20240024003</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
@@ -1416,7 +1416,7 @@
         <v>20240012256</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
         <v>23</v>
@@ -1427,7 +1427,7 @@
         <v>20210046443</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
@@ -1438,7 +1438,7 @@
         <v>20240024207</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -1449,7 +1449,7 @@
         <v>20220153472</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
         <v>26</v>
@@ -1460,7 +1460,7 @@
         <v>20240024158</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1471,7 +1471,7 @@
         <v>20220088296</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -1482,7 +1482,7 @@
         <v>20220064546</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1493,7 +1493,7 @@
         <v>20240024631</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -1504,7 +1504,7 @@
         <v>20240022566</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -1515,7 +1515,7 @@
         <v>20210126376</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
         <v>12</v>
@@ -1526,7 +1526,7 @@
         <v>20240012094</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1537,7 +1537,7 @@
         <v>20240027303</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
         <v>12</v>
@@ -1548,7 +1548,7 @@
         <v>20240002618</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -1559,7 +1559,7 @@
         <v>20240023202</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
@@ -1570,7 +1570,7 @@
         <v>20240027383</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
         <v>12</v>
@@ -1581,7 +1581,7 @@
         <v>20210126581</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
         <v>32</v>
@@ -1592,7 +1592,7 @@
         <v>20240026634</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
@@ -1603,7 +1603,7 @@
         <v>20240015339</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
         <v>27</v>
@@ -1614,7 +1614,7 @@
         <v>20240028955</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
@@ -1625,7 +1625,7 @@
         <v>20240028466</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
@@ -1636,7 +1636,7 @@
         <v>20240029036</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
@@ -1647,7 +1647,7 @@
         <v>20240028839</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
         <v>37</v>
@@ -1658,7 +1658,7 @@
         <v>20240025209</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
         <v>38</v>
@@ -1669,7 +1669,7 @@
         <v>20240028100</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
@@ -1680,7 +1680,7 @@
         <v>20220083756</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
@@ -1691,7 +1691,7 @@
         <v>20240030665</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
         <v>41</v>
@@ -1702,7 +1702,7 @@
         <v>20240030957</v>
       </c>
       <c r="B56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
         <v>42</v>
@@ -1713,7 +1713,7 @@
         <v>20230158280</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
@@ -1724,7 +1724,7 @@
         <v>20240012274</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
         <v>44</v>
@@ -1735,7 +1735,7 @@
         <v>20240029225</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
@@ -1746,7 +1746,7 @@
         <v>20240032359</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
         <v>46</v>
@@ -1757,7 +1757,7 @@
         <v>20240002772</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -1768,7 +1768,7 @@
         <v>20240030597</v>
       </c>
       <c r="B62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
         <v>48</v>
@@ -1779,10 +1779,10 @@
         <v>20240030258</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,10 +1790,10 @@
         <v>20230083087</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,7 +1801,7 @@
         <v>20240039022</v>
       </c>
       <c r="B65" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" t="s">
         <v>12</v>
@@ -1812,10 +1812,10 @@
         <v>20240037502</v>
       </c>
       <c r="B66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,10 +1823,10 @@
         <v>20240032128</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1834,10 +1834,10 @@
         <v>20240035983</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1845,10 +1845,10 @@
         <v>20190007174</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,10 +1856,10 @@
         <v>20240051938</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1867,10 +1867,10 @@
         <v>20240057825</v>
       </c>
       <c r="B71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>20240034567</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C72" t="s">
         <v>37</v>
@@ -1889,7 +1889,7 @@
         <v>20240060316</v>
       </c>
       <c r="B73" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
@@ -1900,10 +1900,10 @@
         <v>20240048714</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>20230023891</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" t="s">
         <v>12</v>
@@ -1922,10 +1922,10 @@
         <v>20180142185</v>
       </c>
       <c r="B76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,10 +1933,10 @@
         <v>20240058395</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1944,10 +1944,10 @@
         <v>20200075595</v>
       </c>
       <c r="B78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1955,7 +1955,7 @@
         <v>20230040481</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
         <v>12</v>
@@ -1966,7 +1966,7 @@
         <v>20240062455</v>
       </c>
       <c r="B80" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
         <v>12</v>
@@ -1977,7 +1977,7 @@
         <v>20240062254</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" t="s">
         <v>12</v>
@@ -1988,10 +1988,10 @@
         <v>20240048215</v>
       </c>
       <c r="B82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1999,7 +1999,7 @@
         <v>20240060273</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>20240054804</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -2021,10 +2021,10 @@
         <v>20240051976</v>
       </c>
       <c r="B85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
         <v>20240068214</v>
       </c>
       <c r="B86" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>20240068214</v>
       </c>
       <c r="B87" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
         <v>12</v>
@@ -2054,7 +2054,7 @@
         <v>20240066137</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
         <v>12</v>
@@ -2065,7 +2065,7 @@
         <v>20240069492</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
         <v>12</v>
@@ -2076,7 +2076,7 @@
         <v>20240067159</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -2087,10 +2087,10 @@
         <v>20230028720</v>
       </c>
       <c r="B91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2098,10 +2098,10 @@
         <v>20240046542</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2109,10 +2109,10 @@
         <v>20230137322</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,10 +2120,10 @@
         <v>20240015478</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2131,10 +2131,10 @@
         <v>20240068424</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2142,10 +2142,10 @@
         <v>20240071058</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2153,10 +2153,10 @@
         <v>20240074728</v>
       </c>
       <c r="B97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>20240074281</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -2175,10 +2175,10 @@
         <v>20240076716</v>
       </c>
       <c r="B99" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2186,10 +2186,10 @@
         <v>20240078762</v>
       </c>
       <c r="B100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
         <v>20240078772</v>
       </c>
       <c r="B101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
         <v>12</v>
@@ -2208,10 +2208,10 @@
         <v>20240062956</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>20240088127</v>
       </c>
       <c r="B103" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>20240076818</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>12</v>
@@ -2241,7 +2241,7 @@
         <v>20240070348</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" t="s">
         <v>12</v>
@@ -2252,7 +2252,7 @@
         <v>20240028527</v>
       </c>
       <c r="B106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C106" t="s">
         <v>12</v>
@@ -2263,7 +2263,7 @@
         <v>20230003855</v>
       </c>
       <c r="B107" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C107" t="s">
         <v>18</v>
@@ -2274,10 +2274,10 @@
         <v>20240092861</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2285,10 +2285,10 @@
         <v>20240087671</v>
       </c>
       <c r="B109" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C109" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2296,10 +2296,10 @@
         <v>20230121277</v>
       </c>
       <c r="B110" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2307,10 +2307,10 @@
         <v>20240094465</v>
       </c>
       <c r="B111" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2318,7 +2318,7 @@
         <v>20230156801</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C112" t="s">
         <v>12</v>
@@ -2329,10 +2329,10 @@
         <v>20240053790</v>
       </c>
       <c r="B113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2340,10 +2340,10 @@
         <v>20240039512</v>
       </c>
       <c r="B114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2351,7 +2351,7 @@
         <v>20240107218</v>
       </c>
       <c r="B115" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" t="s">
         <v>36</v>
@@ -2362,7 +2362,7 @@
         <v>20240099770</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C116" t="s">
         <v>18</v>
@@ -2373,7 +2373,7 @@
         <v>20170059075</v>
       </c>
       <c r="B117" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
         <v>12</v>
@@ -2384,7 +2384,7 @@
         <v>20210062776</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C118" t="s">
         <v>12</v>
@@ -2395,7 +2395,7 @@
         <v>20240043449</v>
       </c>
       <c r="B119" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
         <v>12</v>
@@ -2406,7 +2406,7 @@
         <v>20240076642</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
         <v>12</v>
@@ -2417,7 +2417,7 @@
         <v>20240094375</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -2428,7 +2428,7 @@
         <v>107316668</v>
       </c>
       <c r="B122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C122" t="s">
         <v>12</v>
@@ -2439,7 +2439,7 @@
         <v>106105678</v>
       </c>
       <c r="B123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" t="s">
         <v>12</v>
@@ -2450,7 +2450,7 @@
         <v>20130627983</v>
       </c>
       <c r="B124" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C124" t="s">
         <v>18</v>
@@ -2461,7 +2461,7 @@
         <v>105349965</v>
       </c>
       <c r="B125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" t="s">
         <v>12</v>
@@ -2472,7 +2472,7 @@
         <v>107191161</v>
       </c>
       <c r="B126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" t="s">
         <v>12</v>
@@ -2483,7 +2483,7 @@
         <v>107591141</v>
       </c>
       <c r="B127" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
@@ -2494,10 +2494,10 @@
         <v>106496785</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2505,7 +2505,7 @@
         <v>107588621</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C129" t="s">
         <v>12</v>
@@ -2516,7 +2516,7 @@
         <v>107159161</v>
       </c>
       <c r="B130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C130" t="s">
         <v>12</v>
@@ -2527,10 +2527,10 @@
         <v>106037263</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C131" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2538,10 +2538,10 @@
         <v>105707937</v>
       </c>
       <c r="B132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
         <v>10749833</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
         <v>46</v>
@@ -2560,7 +2560,7 @@
         <v>106940756</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" t="s">
         <v>12</v>
@@ -2571,7 +2571,7 @@
         <v>107688917</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
         <v>12</v>
@@ -2582,7 +2582,7 @@
         <v>107656065</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" t="s">
         <v>12</v>
@@ -2593,7 +2593,7 @@
         <v>107332121</v>
       </c>
       <c r="B137" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
         <v>12</v>
@@ -2604,7 +2604,7 @@
         <v>105499701</v>
       </c>
       <c r="B138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" t="s">
         <v>12</v>
@@ -2615,10 +2615,10 @@
         <v>107545828</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
         <v>105152175</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C140" t="s">
         <v>12</v>
@@ -2637,7 +2637,7 @@
         <v>106765529</v>
       </c>
       <c r="B141" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" t="s">
         <v>12</v>
@@ -2648,7 +2648,7 @@
         <v>107677777</v>
       </c>
       <c r="B142" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C142" t="s">
         <v>12</v>
@@ -2659,7 +2659,7 @@
         <v>107523163</v>
       </c>
       <c r="B143" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>12</v>
@@ -2670,7 +2670,7 @@
         <v>107579659</v>
       </c>
       <c r="B144" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C144" t="s">
         <v>12</v>
@@ -2681,7 +2681,7 @@
         <v>107607851</v>
       </c>
       <c r="B145" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C145" t="s">
         <v>12</v>
@@ -2692,7 +2692,7 @@
         <v>107727541</v>
       </c>
       <c r="B146" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C146" t="s">
         <v>46</v>
@@ -2703,7 +2703,7 @@
         <v>107299718</v>
       </c>
       <c r="B147" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C147" t="s">
         <v>12</v>
